--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -23,6 +23,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">性别
 </t>
     </r>
@@ -48,6 +55,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -73,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>name</t>
     </r>
     <r>
@@ -98,6 +119,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">sex </t>
     </r>
     <r>
@@ -114,6 +142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Friend_intro </t>
     </r>
     <r>
@@ -130,6 +165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>portray_id</t>
     </r>
     <r>
@@ -155,6 +197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">head_portrait_path </t>
     </r>
     <r>
@@ -205,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -233,155 +282,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -390,7 +439,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,49 +466,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,133 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,30 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -674,15 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,11 +714,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +726,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +759,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,31 +799,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,100 +838,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,7 +939,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,7 +1275,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1266,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="47.25" spans="1:6">
+    <row r="2" ht="33.75" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>序号</t>
   </si>
@@ -54,6 +54,25 @@
     <t>头像路径</t>
   </si>
   <si>
+    <t>普通好感道具组</t>
+  </si>
+  <si>
+    <t>普通对白组
+随机选一句</t>
+  </si>
+  <si>
+    <t>喜好好感道具组</t>
+  </si>
+  <si>
+    <t>喜好对白组</t>
+  </si>
+  <si>
+    <t>厌恶好感道具组</t>
+  </si>
+  <si>
+    <t>厌恶对白组</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -216,6 +235,102 @@
         <charset val="134"/>
       </rPr>
       <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">common_item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">common_dialog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">like_item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">like_dialog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">abominate_item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">abominate_dialog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -288,8 +403,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,128 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -472,175 +587,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,41 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,17 +821,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,8 +874,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,109 +902,109 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,38 +1013,38 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,10 +1057,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,24 +1399,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="33" width="9" style="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" customWidth="1"/>
+    <col min="13" max="33" width="9" style="1"/>
     <col min="34" max="34" width="11.625" style="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" spans="1:6">
+    <row r="1" ht="48.75" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1308,25 +1441,61 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="33.75" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+    <row r="2" ht="47.25" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1334,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1348,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1362,13 +1531,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1376,13 +1545,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1390,13 +1559,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>序号</t>
   </si>
@@ -48,6 +48,10 @@
     <t>知交介绍</t>
   </si>
   <si>
+    <t>解锁条件
+剧情id</t>
+  </si>
+  <si>
     <t>人物立绘id</t>
   </si>
   <si>
@@ -184,23 +188,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>portray_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">unlock_condition </t>
     </r>
     <r>
       <rPr>
@@ -223,7 +211,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">head_portrait_path </t>
+      <t>portray_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -234,12 +231,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">common_item </t>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">head_portrait_path </t>
     </r>
     <r>
       <rPr>
@@ -250,12 +254,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">common_dialog </t>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">common_item </t>
     </r>
     <r>
       <rPr>
@@ -271,7 +282,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">like_item </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">common_dialog </t>
     </r>
     <r>
       <rPr>
@@ -287,7 +305,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">like_dialog </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">like_item </t>
     </r>
     <r>
       <rPr>
@@ -303,7 +328,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">abominate_item </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">like_dialog </t>
     </r>
     <r>
       <rPr>
@@ -319,6 +351,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">abominate_item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">abominate_dialog </t>
     </r>
     <r>
@@ -397,13 +459,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -411,23 +556,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,102 +588,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,49 +643,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,127 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,17 +859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,16 +872,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,21 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -875,7 +907,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +941,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,137 +976,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,16 +1119,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,30 +1452,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="1" customWidth="1"/>
-    <col min="13" max="33" width="9" style="1"/>
-    <col min="34" max="34" width="11.625" style="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="1" customWidth="1"/>
+    <col min="14" max="34" width="9" style="1"/>
+    <col min="35" max="35" width="11.625" style="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" spans="1:12">
+    <row r="1" ht="48.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,134 +1492,155 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="47.25" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" ht="33.75" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -188,6 +188,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">unlock_condition </t>
     </r>
     <r>
@@ -432,8 +439,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -459,59 +466,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +538,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -540,25 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,14 +586,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -588,15 +593,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +650,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,7 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,43 +734,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,97 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,20 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,11 +898,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,21 +910,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +943,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -964,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,16 +983,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,115 +1001,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,8 +1461,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>序号</t>
   </si>
@@ -58,6 +58,9 @@
     <t>头像路径</t>
   </si>
   <si>
+    <t>背景id</t>
+  </si>
+  <si>
     <t>普通好感道具组</t>
   </si>
   <si>
@@ -266,14 +269,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">common_item </t>
+      <t xml:space="preserve">scene_id </t>
     </r>
     <r>
       <rPr>
@@ -284,7 +280,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -296,7 +292,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">common_dialog </t>
+      <t xml:space="preserve">common_item </t>
     </r>
     <r>
       <rPr>
@@ -319,7 +315,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">like_item </t>
+      <t xml:space="preserve">common_dialog </t>
     </r>
     <r>
       <rPr>
@@ -342,7 +338,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">like_dialog </t>
+      <t xml:space="preserve">like_item </t>
     </r>
     <r>
       <rPr>
@@ -365,7 +361,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">abominate_item </t>
+      <t xml:space="preserve">like_dialog </t>
     </r>
     <r>
       <rPr>
@@ -388,7 +384,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">abominate_dialog </t>
+      <t xml:space="preserve">abominate_item </t>
     </r>
     <r>
       <rPr>
@@ -403,34 +399,72 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">abominate_dialog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
     <t>绿瑶</t>
   </si>
   <si>
     <t>贴身丫鬟，从小一块长大，感情深厚。</t>
   </si>
   <si>
+    <t>Assets/mnRes/Images/friend/head/1.png</t>
+  </si>
+  <si>
     <t>裴淤烟</t>
   </si>
   <si>
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
   </si>
   <si>
+    <t>Assets/mnRes/Images/friend/head/2.png</t>
+  </si>
+  <si>
     <t>蔺飒</t>
   </si>
   <si>
     <t>蔺飒，字云衣，权倾朝野，长安城首富，看似放荡不羁，左右逢源实则城府深，野心强。</t>
   </si>
   <si>
+    <t>Assets/mnRes/Images/friend/head/3.png</t>
+  </si>
+  <si>
     <t>侯开朗</t>
   </si>
   <si>
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
   </si>
   <si>
+    <t>Assets/mnRes/Images/friend/head/4.png</t>
+  </si>
+  <si>
     <t>李贤</t>
   </si>
   <si>
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/friend/head/5.png</t>
   </si>
 </sst>
 </file>
@@ -438,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -465,58 +499,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +561,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -538,50 +614,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,17 +629,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,181 +684,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,16 +900,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -899,46 +933,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -958,8 +968,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,133 +1017,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1471,19 +1505,19 @@
     <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="1" customWidth="1"/>
-    <col min="14" max="34" width="9" style="1"/>
-    <col min="35" max="35" width="11.625" style="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
+    <col min="15" max="35" width="9" style="1"/>
+    <col min="36" max="36" width="11.625" style="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" spans="1:13">
+    <row r="1" ht="48.75" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1542,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1523,131 +1557,182 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="33.75" spans="1:13">
+    <row r="2" ht="33.75" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="49.5" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="49.5" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="49.5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="49.5" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="49.5" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -269,6 +269,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">scene_id </t>
     </r>
     <r>
@@ -431,7 +438,7 @@
     <t>Assets/mnRes/Images/friend/head/1.png</t>
   </si>
   <si>
-    <t>裴淤烟</t>
+    <t>裴邈</t>
   </si>
   <si>
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
@@ -449,7 +456,7 @@
     <t>Assets/mnRes/Images/friend/head/3.png</t>
   </si>
   <si>
-    <t>侯开朗</t>
+    <t>李璨昭</t>
   </si>
   <si>
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
@@ -458,7 +465,7 @@
     <t>Assets/mnRes/Images/friend/head/4.png</t>
   </si>
   <si>
-    <t>李贤</t>
+    <t>李润</t>
   </si>
   <si>
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
@@ -472,10 +479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -499,17 +506,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,36 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -562,82 +636,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,13 +691,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,163 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,17 +907,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +940,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -954,46 +990,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,137 +1024,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,6 +1172,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,7 +1506,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1589,19 +1599,19 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1622,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>8</v>
+      <c r="H3" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="49.5" spans="1:8">
@@ -1648,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>9</v>
+      <c r="H4" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="49.5" spans="1:8">
@@ -1674,13 +1684,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5">
-        <v>10</v>
+      <c r="H5" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="49.5" spans="1:8">
@@ -1700,13 +1710,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6">
-        <v>11</v>
+      <c r="H6" s="6">
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="49.5" spans="1:8">
@@ -1726,13 +1736,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7">
-        <v>12</v>
+      <c r="H7" s="6">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23400" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Friend" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -435,7 +435,7 @@
     <t>贴身丫鬟，从小一块长大，感情深厚。</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/friend/head/1.png</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1</t>
   </si>
   <si>
     <t>裴邈</t>
@@ -444,7 +444,7 @@
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/friend/head/2.png</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2</t>
   </si>
   <si>
     <t>蔺飒</t>
@@ -453,7 +453,7 @@
     <t>蔺飒，字云衣，权倾朝野，长安城首富，看似放荡不羁，左右逢源实则城府深，野心强。</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/friend/head/3.png</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3</t>
   </si>
   <si>
     <t>李璨昭</t>
@@ -462,7 +462,7 @@
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/friend/head/4.png</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4</t>
   </si>
   <si>
     <t>李润</t>
@@ -471,7 +471,7 @@
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/friend/head/5.png</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5</t>
   </si>
 </sst>
 </file>
@@ -479,10 +479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -513,6 +513,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -520,10 +535,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,108 +634,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,13 +691,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +769,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,31 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,115 +835,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,11 +907,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,17 +931,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,26 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -986,6 +977,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1501,12 +1501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1615,7 +1615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:8">
+    <row r="3" ht="66" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="49.5" spans="1:8">
+    <row r="4" ht="66" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="49.5" spans="1:8">
+    <row r="5" ht="66" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="49.5" spans="1:8">
+    <row r="6" ht="66" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="49.5" spans="1:8">
+    <row r="7" ht="66" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -435,7 +435,7 @@
     <t>贴身丫鬟，从小一块长大，感情深厚。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
   </si>
   <si>
     <t>裴邈</t>
@@ -444,7 +444,7 @@
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
   </si>
   <si>
     <t>蔺飒</t>
@@ -453,7 +453,7 @@
     <t>蔺飒，字云衣，权倾朝野，长安城首富，看似放荡不羁，左右逢源实则城府深，野心强。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
   </si>
   <si>
     <t>李璨昭</t>
@@ -462,7 +462,7 @@
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
   </si>
   <si>
     <t>李润</t>
@@ -471,7 +471,7 @@
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5</t>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -506,6 +506,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -513,16 +530,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +576,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,77 +613,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,25 +627,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,25 +691,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,151 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +907,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -922,11 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,18 +960,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,30 +1004,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1012,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,34 +1024,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,97 +1060,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -55,7 +55,7 @@
     <t>人物立绘id</t>
   </si>
   <si>
-    <t>头像路径</t>
+    <t>头像ID</t>
   </si>
   <si>
     <t>背景id</t>
@@ -246,14 +246,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">head_portrait_path </t>
+      <t xml:space="preserve">head_portrait_id </t>
     </r>
     <r>
       <rPr>
@@ -264,7 +257,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -435,43 +428,28 @@
     <t>贴身丫鬟，从小一块长大，感情深厚。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
-  </si>
-  <si>
     <t>裴邈</t>
   </si>
   <si>
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
-  </si>
-  <si>
     <t>蔺飒</t>
   </si>
   <si>
     <t>蔺飒，字云衣，权倾朝野，长安城首富，看似放荡不羁，左右逢源实则城府深，野心强。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
-  </si>
-  <si>
     <t>李璨昭</t>
   </si>
   <si>
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
-  </si>
-  <si>
     <t>李润</t>
   </si>
   <si>
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
-  </si>
-  <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
   </si>
 </sst>
 </file>
@@ -479,8 +457,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -506,88 +484,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -596,9 +492,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,8 +566,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,15 +607,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,19 +669,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,37 +747,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,61 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,37 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,10 +887,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -921,8 +897,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,24 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -986,6 +944,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,6 +973,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1012,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,10 +1002,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,7 +1014,7 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,106 +1023,106 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,7 +1484,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1615,7 +1593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="66" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1634,25 +1612,25 @@
       <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
+      <c r="G3" s="1">
+        <v>10</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="66" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1660,25 +1638,25 @@
       <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
+      <c r="G4" s="1">
+        <v>12</v>
       </c>
       <c r="H4" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="66" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1686,25 +1664,25 @@
       <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
+      <c r="G5" s="1">
+        <v>6</v>
       </c>
       <c r="H5" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="66" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1712,25 +1690,25 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
+      <c r="G6" s="1">
+        <v>5</v>
       </c>
       <c r="H6" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="66" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1738,8 +1716,8 @@
       <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
+      <c r="G7" s="1">
+        <v>8</v>
       </c>
       <c r="H7" s="6">
         <v>19</v>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="12465"/>
+    <workbookView windowWidth="17250" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Friend" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -246,6 +246,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">head_portrait_id </t>
     </r>
     <r>
@@ -428,28 +435,118 @@
     <t>贴身丫鬟，从小一块长大，感情深厚。</t>
   </si>
   <si>
+    <t>107004,107005,107007,107012,107014,107015,107017</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>107001,107002,107008,107010,107016,107019,107020</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>107003,107006,107009,107011,107013,107018</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
     <t>裴邈</t>
   </si>
   <si>
     <t>裴淤烟，字子冉，裴家嫡次子，排行第十三。</t>
   </si>
   <si>
+    <t>107001,107006,107007,107009,107013,107017,107018,107019</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>107004,107005,107008,107012,107014,107015,107020</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>107002,107003,107010,107011,107016</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>蔺飒</t>
   </si>
   <si>
     <t>蔺飒，字云衣，权倾朝野，长安城首富，看似放荡不羁，左右逢源实则城府深，野心强。</t>
   </si>
   <si>
+    <t>107003,107004,107008,107010,107014,107016,107018,107020</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>107002,107005,107006,107011,107012,107013,107015</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>107001,107007,107009,107017,107019</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>李璨昭</t>
   </si>
   <si>
     <t>不喜文，酷爱武，恣肆纵情，不惜朝廷勾心斗角，向往仗剑江湖的日子。</t>
   </si>
   <si>
+    <t>107002,107003,107009,107013,107015,107016,107019</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>107001,107006,107008,107010,107011,107014,10,1070187017</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>107004,107005,107007,107012,107020</t>
+  </si>
+  <si>
+    <t>4003</t>
+  </si>
+  <si>
     <t>李润</t>
   </si>
   <si>
     <t>字明允，武则天次子。容貌俊秀，举止端庄，才思敏捷，深受皇帝李治喜爱。</t>
+  </si>
+  <si>
+    <t>107001,107005,107008,107011,107012,107014,107017,107019</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>107002,107003,107007,107009,107013,107015,107016,107018</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>107004,107006,107010,107020</t>
+  </si>
+  <si>
+    <t>5003</t>
   </si>
 </sst>
 </file>
@@ -457,10 +554,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -482,6 +579,142 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -492,142 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -669,31 +766,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,133 +826,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,31 +986,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,26 +1007,33 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -976,9 +1056,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,143 +1099,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,7 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,7 +1593,9 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1494,106 +1605,106 @@
     <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="18.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="2" customWidth="1"/>
     <col min="15" max="35" width="9" style="1"/>
     <col min="36" max="36" width="11.625" style="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="33.75" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="49.5" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1615,22 +1726,40 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>20</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="66" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1641,22 +1770,40 @@
       <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>18</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="66" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1667,22 +1814,40 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>21</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="49.5" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1693,22 +1858,40 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>22</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="66" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1719,8 +1902,26 @@
       <c r="G7" s="1">
         <v>8</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17250" windowHeight="12195"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Friend" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>5003</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -582,24 +585,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,6 +644,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -617,47 +659,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,6 +691,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -679,46 +708,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -726,6 +715,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -766,169 +769,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,25 +985,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1023,9 +1017,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,32 +1030,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1079,6 +1049,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,10 +1090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,133 +1102,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,15 +1593,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
@@ -1724,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
         <v>20</v>
@@ -1768,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -1812,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -1856,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1900,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -1922,6 +1925,11 @@
       </c>
       <c r="N7" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14">
+      <c r="N9" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>5003</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
 </sst>
 </file>
@@ -557,9 +554,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -585,6 +582,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -593,84 +597,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,6 +612,43 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -690,30 +656,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -721,6 +679,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -728,6 +694,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -769,49 +766,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,55 +868,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,19 +904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,31 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,16 +982,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1026,15 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1050,16 +1056,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1073,15 +1079,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1090,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,133 +1099,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,15 +1590,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G3" sqref="G3:G7"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
@@ -1927,11 +1924,6 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="14:14">
-      <c r="N9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/Friend.xlsx
+++ b/common/Friend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Friend" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>序号</t>
   </si>
@@ -554,10 +554,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -582,24 +582,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,28 +718,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -642,90 +726,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -766,37 +766,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,67 +892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,67 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,32 +985,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,10 +1008,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1074,8 +1048,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,145 +1087,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1251,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,14 +1588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>20</v>
+        <v>11001</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1771,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>12001</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>38</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>13001</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>46</v>
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>14001</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>54</v>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>15001</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>62</v>
